--- a/TourPlanner_Checklist_Intermediate.xlsx
+++ b/TourPlanner_Checklist_Intermediate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallisch\Nextcloud\Lehre\S4-SWEN2\Semester Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\Swen2-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688B232-0F9D-41E9-90D5-38CB80F894B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2CC64-1844-40B9-9E70-C4F9DC09DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11124" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -121,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +187,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,12 +229,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -253,9 +269,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,7 +309,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,17 +584,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -653,7 +669,10 @@
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="B18" s="9">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
         <v>4</v>
       </c>
     </row>
@@ -661,7 +680,10 @@
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="7">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -669,28 +691,30 @@
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7">
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
         <v>2</v>
       </c>
     </row>
@@ -698,17 +722,21 @@
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="7">
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -716,27 +744,30 @@
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:3" s="11" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="7">
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6">
         <v>2</v>
       </c>
     </row>
@@ -744,8 +775,10 @@
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="7">
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
         <v>2</v>
       </c>
     </row>
@@ -753,8 +786,10 @@
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="7">
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -762,25 +797,31 @@
       <c r="A32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="7">
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
         <v>1</v>
       </c>
     </row>
@@ -790,7 +831,7 @@
       </c>
       <c r="B37" s="2">
         <f>IF(MIN(B9:B12)=1,SUM(B18:B35),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(C18:C35)</f>

--- a/TourPlanner_Checklist_Intermediate.xlsx
+++ b/TourPlanner_Checklist_Intermediate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\Swen2-Tour_Planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\Swen1-Tour_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B2CC64-1844-40B9-9E70-C4F9DC09DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F7674E-F821-4FA9-984E-0DE4338C3027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,7 +232,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -568,42 +567,42 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -611,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -619,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
@@ -627,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -635,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -643,12 +642,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -659,13 +658,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -676,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -687,27 +686,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
@@ -718,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -729,18 +725,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -751,87 +747,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2">
         <f>IF(MIN(B9:B12)=1,SUM(B18:B35),0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2">
         <f>SUM(C18:C35)</f>
